--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1092923.0439299</v>
+        <v>1142284.970343271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365223</v>
+        <v>606553.2040797138</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6525757.041352229</v>
+        <v>7042635.459776141</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>422.3624867802138</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>30.96465002000427</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>86.27769679771781</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -868,13 +870,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>176.143817257805</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.1492385493275</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>112.1821023581629</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>234.3277699012944</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>124.7668265422409</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022503</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615953</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>179.767280346348</v>
+        <v>308.1140575217021</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1531,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>3.423392126085256</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170474</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>414.7666151446088</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>351.257021922436</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002294</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,13 +1852,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>140.5689102989812</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
-        <v>31.28831241118208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
-        <v>56.72042565248025</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.7946199894503</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.7368624962599</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3794,16 +3796,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002294</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>151.5498044752688</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>30.33291354472021</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225752</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1666.664655396534</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.562586620361</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.933812094893</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>772.1590672531879</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>344.2916376623957</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O2" t="n">
-        <v>1844.930551071281</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2516.352408962074</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.209945541385</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.923821841038</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>379.3030186989643</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1056.76860364177</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1051.194039279934</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>878.632327763159</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>712.7543349646817</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1987.850487765109</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1715.824083351401</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1470.432328684813</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1243.012657998921</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2191.836957184118</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>1753.694484367541</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.784699541985</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>884.0099547002803</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>456.1425251094881</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.419636089035</v>
+        <v>2232.100425464725</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.31757670875</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y5" t="n">
-        <v>2618.136527669025</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>1082.832276802227</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>1082.832276802227</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.832276802227</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>1082.832276802227</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>1082.832276802227</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P6" t="n">
-        <v>1082.832276802227</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>988.7001562772812</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>816.1384447605061</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>650.2604519620288</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2490.74511363892</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2212.312112892026</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1925.356604762456</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1653.330200348748</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1407.93844568216</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1180.518774996268</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>78.57171928314017</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2025.790365675272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>405.3666918594219</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>405.3666918594219</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3666918594219</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N9" t="n">
-        <v>1082.832276802227</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O9" t="n">
-        <v>1082.832276802227</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1082.832276802227</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2490.74511363892</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2212.312112892026</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.7445945665695</v>
+        <v>2104.363000055494</v>
       </c>
       <c r="C11" t="n">
-        <v>55.16148310561195</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>55.16148310561195</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>55.16148310561195</v>
+        <v>923.4521496592421</v>
       </c>
       <c r="F11" t="n">
-        <v>55.16148310561195</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171372</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171372</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>489.9993811856698</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>489.9993811856698</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397639</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231035</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942686</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126523</v>
       </c>
       <c r="T11" t="n">
-        <v>2517.167459510636</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="U11" t="n">
-        <v>2257.945156827654</v>
+        <v>4125.563562316578</v>
       </c>
       <c r="V11" t="n">
-        <v>1895.32820676148</v>
+        <v>3762.946612250405</v>
       </c>
       <c r="W11" t="n">
-        <v>1490.472752172513</v>
+        <v>3358.091157661438</v>
       </c>
       <c r="X11" t="n">
-        <v>1071.330288751824</v>
+        <v>2938.948694240749</v>
       </c>
       <c r="Y11" t="n">
-        <v>663.0441650514773</v>
+        <v>2530.662570540402</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.3950942933421</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202958</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364574</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026413</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>1604.797076516338</v>
       </c>
       <c r="N12" t="n">
-        <v>405.3666918594219</v>
+        <v>1604.797076516338</v>
       </c>
       <c r="O12" t="n">
-        <v>405.3666918594219</v>
+        <v>1604.797076516338</v>
       </c>
       <c r="P12" t="n">
-        <v>1082.832276802227</v>
+        <v>1604.797076516338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>566.8010264944307</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>397.0430227451681</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>220.3359687069243</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835436</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1614.957209333532</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1614.957209333532</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1179.047424507977</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>745.2726796662719</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>745.2726796662719</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>382.9002538756375</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>254.9523156162949</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>1089.302607574473</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.362573827332</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>3144.542240397639</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231035</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942686</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126523</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316578</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3762.946612250405</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3358.091157661438</v>
       </c>
       <c r="X14" t="n">
-        <v>1614.957209333532</v>
+        <v>2938.948694240749</v>
       </c>
       <c r="Y14" t="n">
-        <v>1614.957209333532</v>
+        <v>2938.948694240749</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.3950942933421</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202958</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364574</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026413</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1040.518870268755</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835436</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,16 +5524,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5946,16 @@
         <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6078,13 +6080,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
         <v>2496.382403636182</v>
@@ -6169,28 +6171,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6214,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6546,10 +6548,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.769857140658</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>896.2081456238831</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1488.008146545537</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1260.588475859645</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3603.973621145286</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4584.153287715592</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T37" t="n">
-        <v>2506.656904206056</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U37" t="n">
-        <v>2228.223903459162</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V37" t="n">
-        <v>1941.268395329592</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W37" t="n">
-        <v>1669.241990915884</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.850236249296</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2291.478512820577</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2291.478512820577</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257024</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7214,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.710185817965</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>926.14847430119</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>760.2704815027128</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>590.51247775345</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>413.8054237152062</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>248.2141487410339</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7339,43 +7341,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2035.36663430314</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1763.340229889432</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.948475222844</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1290.528804536952</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1328.47653214063</v>
+        <v>2104.363000055494</v>
       </c>
       <c r="C41" t="n">
-        <v>890.334059324053</v>
+        <v>1666.220527238918</v>
       </c>
       <c r="D41" t="n">
-        <v>890.334059324053</v>
+        <v>1230.310742413362</v>
       </c>
       <c r="E41" t="n">
-        <v>456.5593144823481</v>
+        <v>796.5359975716574</v>
       </c>
       <c r="F41" t="n">
-        <v>456.5593144823481</v>
+        <v>368.6685679808651</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>368.6685679808651</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171372</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>835.8047307933927</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397639</v>
       </c>
       <c r="N41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397639</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397639</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231035</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942686</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>4604.853092126523</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="U41" t="n">
-        <v>2433.515585694473</v>
+        <v>4125.563562316578</v>
       </c>
       <c r="V41" t="n">
-        <v>2070.8986356283</v>
+        <v>3762.946612250405</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.8986356283</v>
+        <v>3358.091157661438</v>
       </c>
       <c r="X41" t="n">
-        <v>2070.8986356283</v>
+        <v>2938.948694240749</v>
       </c>
       <c r="Y41" t="n">
-        <v>1662.612511927953</v>
+        <v>2530.662570540402</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.3950942933421</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202958</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364574</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026413</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>363.05328532595</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>363.05328532595</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1040.518870268755</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.518870268755</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1040.518870268755</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1717.984455211561</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1717.984455211561</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835436</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2070.459302829808</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>641.6000491555363</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>641.6000491555363</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>641.6000491555363</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>207.8253043138315</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756375</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>1161.512116289772</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>2236.572082542632</v>
       </c>
       <c r="M44" t="n">
-        <v>489.9993811856698</v>
+        <v>3393.619917753182</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942686</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942686</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>4468.437738815725</v>
       </c>
       <c r="U44" t="n">
-        <v>2257.945156827654</v>
+        <v>4209.215436132741</v>
       </c>
       <c r="V44" t="n">
-        <v>1895.32820676148</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>1895.32820676148</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>1476.185743340791</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1067.899619640444</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.3950942933421</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202958</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364574</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026413</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>742.8207098557364</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>570.2589983389613</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>404.381005540484</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>234.6230017912213</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>57.91594775297747</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885372</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835436</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2490.74511363892</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.865667217376</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>1966.432666470481</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1679.477158340911</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.450753927203</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.058999260615</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.6393285747235</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q6" t="n">
-        <v>523.2115154696905</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761441</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>35.39394564341887</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>162.8103194923648</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>641.5678569791248</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9170,19 +9172,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>407.4230472303479</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.8552653209142</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,19 +10597,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>655.9980117748582</v>
       </c>
       <c r="P35" t="n">
-        <v>534.2310361852406</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>928.9017102411126</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>104.6408607250861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>713.2395913281107</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>311.4228197911091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>638.8760904222228</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>178.4356412673393</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>253.9937677420629</v>
+        <v>125.6469905667088</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>7.269959635449879</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>63.69401686404643</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>23.65030257151136</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
-        <v>81.78272691404896</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.24195479060842</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>14.50199051495599</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>272.0389508196156</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.6578670207915</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>616038.3700582066</v>
+        <v>615641.3929001034</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>616038.3700582066</v>
+        <v>615641.3929001034</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>616038.3700582066</v>
+        <v>615641.3929001034</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403993.1367347555</v>
+        <v>581286.3523228306</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403993.1367347554</v>
+        <v>581286.3523228306</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619859.9620902175</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902177</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619859.9620902177</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403993.1367347554</v>
+        <v>581286.3523228306</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403993.1367347555</v>
+        <v>581286.3523228306</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287655</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287654</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348495.7579287655</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
         <v>342457.429689279</v>
@@ -26341,7 +26343,7 @@
         <v>342457.4296892791</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
         <v>342457.429689279</v>
@@ -26350,10 +26352,10 @@
         <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425572</v>
       </c>
       <c r="P2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425572</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717481</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013473</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013472</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="H4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26447,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013472</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013471</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232883</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232883</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232883</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232883</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92893.08128860666</v>
+        <v>-88800.21245594155</v>
       </c>
       <c r="C6" t="n">
-        <v>136434.4936839063</v>
+        <v>134899.4861281032</v>
       </c>
       <c r="D6" t="n">
-        <v>136434.4936839063</v>
+        <v>134899.4861281032</v>
       </c>
       <c r="E6" t="n">
-        <v>154788.4900947752</v>
+        <v>60651.53816834548</v>
       </c>
       <c r="F6" t="n">
-        <v>154788.4900947752</v>
+        <v>211317.2917400936</v>
       </c>
       <c r="G6" t="n">
-        <v>60822.95135513239</v>
+        <v>194526.4299809661</v>
       </c>
       <c r="H6" t="n">
         <v>223616.2391535738</v>
@@ -26543,25 +26545,25 @@
         <v>223616.2391535738</v>
       </c>
       <c r="J6" t="n">
-        <v>44570.98106592185</v>
+        <v>48964.89043586765</v>
       </c>
       <c r="K6" t="n">
         <v>223616.2391535738</v>
       </c>
       <c r="L6" t="n">
-        <v>223616.2391535736</v>
+        <v>223616.2391535738</v>
       </c>
       <c r="M6" t="n">
-        <v>223616.2391535738</v>
+        <v>97865.15081788294</v>
       </c>
       <c r="N6" t="n">
         <v>223616.2391535738</v>
       </c>
       <c r="O6" t="n">
-        <v>154788.4900947752</v>
+        <v>211317.2917400937</v>
       </c>
       <c r="P6" t="n">
-        <v>154788.4900947753</v>
+        <v>211317.2917400937</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778143</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990739</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990739</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.188200197086076</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.7827269140523</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>182.8469633077067</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.0540239140156</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.87832135360721</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.7088048787643</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.6701708510469</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.63380825304891</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>143.6516710866785</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-7.473513743199331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30411,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q6" t="n">
-        <v>523.2115154696905</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761441</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>35.39394564341887</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>162.8103194923648</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>641.5678569791248</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,19 +35892,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>407.4230472303479</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.8552653209142</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>655.9980117748582</v>
       </c>
       <c r="P35" t="n">
-        <v>534.2310361852406</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>928.9017102411126</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37561,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37709,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645627</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>104.6408607250861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>713.2395913281107</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37797,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>311.4228197911091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>638.8760904222228</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>178.4356412673393</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158827</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1142284.970343271</v>
+        <v>1141678.882714374</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797138</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7042635.459776141</v>
+        <v>7042635.45977614</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -670,16 +670,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>242.8243655528866</v>
       </c>
       <c r="W2" t="n">
-        <v>30.96465002000427</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U4" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>430.0187615088495</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>176.143817257805</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481291</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.3277699012944</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>339.6472605743527</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.139541480022503</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>308.1140575217021</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170474</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>414.7666151446088</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>17.96377529449277</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.13954148002294</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>61.06386613909849</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>50.0592448656676</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>271.7368624962599</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002294</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>30.33291354472021</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225752</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.055244562854</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C2" t="n">
-        <v>946.912771746277</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>801.8819313892766</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M2" t="n">
-        <v>801.8819313892766</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N2" t="n">
-        <v>801.8819313892766</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472833</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
         <v>2670.060826431428</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W2" t="n">
-        <v>2638.783402168797</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X2" t="n">
-        <v>2219.640938748108</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.354815047761</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2510.819457729424</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.493479979994</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.351007163417</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.441222337862</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2232.915476013288</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2232.100425464725</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.99836608444</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.752646424497</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4710,13 +4710,13 @@
         <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>798.2938782624194</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304467</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.178548755904</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.076489375619</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2025.790365675272</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363599</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870971</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885332</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>56.57247054885332</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>56.57247054885332</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055494</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.136679326502</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1357.226894500947</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>923.4521496592421</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>94.18688869171372</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171372</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827332</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827332</v>
+        <v>2710.861359785925</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827332</v>
+        <v>2710.861359785925</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397639</v>
+        <v>3691.041026356231</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231035</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189629</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942686</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126523</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999561</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316578</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250405</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661438</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240749</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540402</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>398.3950942933421</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>304.2746796202958</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8908412364574</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026413</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5129,16 +5129,16 @@
         <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.797076516338</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1604.797076516338</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1604.797076516338</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1604.797076516338</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2639367364659</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7022252196908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>464.8242324212135</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>295.0662286719508</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>118.359174633707</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>180.3497844835436</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
         <v>455.1082390546791</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
         <v>1212.165514843166</v>
@@ -5269,61 +5269,61 @@
         <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756375</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>254.9523156162949</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1089.302607574473</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827332</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827332</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827332</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397639</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231035</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189629</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942686</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126523</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999561</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316578</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250405</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661438</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240749</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.948694240749</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>398.3950942933421</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>304.2746796202958</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>220.8908412364574</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026413</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885372</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885372</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885372</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>180.3497844835436</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
         <v>455.1082390546791</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3011.896708242392</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.018715443915</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>2676.260711694652</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2499.553657656408</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6238,40 +6238,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6952,13 +6952,13 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7314,16 +7314,16 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055494</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238918</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413362</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716574</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6685679808651</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>368.6685679808651</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171372</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>3144.542240397639</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>3144.542240397639</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397639</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231035</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189629</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942686</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126523</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999561</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316578</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250405</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661438</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240749</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540402</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>398.3950942933421</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>304.2746796202958</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>220.8908412364574</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026413</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7560,16 +7560,16 @@
         <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>180.3497844835436</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
         <v>455.1082390546791</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756375</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885372</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1161.512116289772</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2236.572082542632</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>3393.619917753182</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>4519.350901189629</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>4519.350901189629</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>4519.350901189629</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189629</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942686</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942686</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815725</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132741</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>398.3950942933421</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>304.2746796202958</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8908412364574</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026413</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384693</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216943</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>624.065601123217</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739543</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>277.6005433357104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>112.0092683615381</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885372</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>180.3497844835436</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
         <v>455.1082390546791</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157457</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>316.389926674475</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8236,10 +8236,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761441</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.39394564341887</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923648</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>363.3683445154879</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>655.9980117748582</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-4.63134280015893e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>713.2395913281107</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>638.8760904222228</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>125.6469905667088</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.269959635449879</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>411.473222098795</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.155346731394</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>14.50199051495599</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444077</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.6578670207915</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581286.3523228306</v>
+        <v>581286.3523228305</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581286.3523228306</v>
+        <v>581286.3523228305</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619859.9620902177</v>
+        <v>619859.9620902175</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902175</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902175</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581286.3523228306</v>
+        <v>581286.3523228305</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581286.3523228306</v>
+        <v>581286.3523228305</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287653</v>
       </c>
       <c r="E2" t="n">
         <v>321146.4561425571</v>
@@ -26331,7 +26331,7 @@
         <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26346,16 +26346,16 @@
         <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
-        <v>321146.4561425572</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>321146.4561425572</v>
+        <v>321146.456142557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717481</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260766</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>38563.88892013473</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
-        <v>38563.88892013472</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26456,10 +26456,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>38563.88892013472</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>38563.88892013471</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232883</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232883</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232883</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232883</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88800.21245594155</v>
+        <v>-88800.21245594152</v>
       </c>
       <c r="C6" t="n">
         <v>134899.4861281032</v>
       </c>
       <c r="D6" t="n">
-        <v>134899.4861281032</v>
+        <v>134899.4861281031</v>
       </c>
       <c r="E6" t="n">
-        <v>60651.53816834548</v>
+        <v>60546.34854609097</v>
       </c>
       <c r="F6" t="n">
-        <v>211317.2917400936</v>
+        <v>211212.102117839</v>
       </c>
       <c r="G6" t="n">
-        <v>194526.4299809661</v>
+        <v>194503.2056415833</v>
       </c>
       <c r="H6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141911</v>
       </c>
       <c r="I6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141911</v>
       </c>
       <c r="J6" t="n">
-        <v>48964.89043586765</v>
+        <v>48941.66609648499</v>
       </c>
       <c r="K6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141912</v>
       </c>
       <c r="L6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141911</v>
       </c>
       <c r="M6" t="n">
-        <v>97865.15081788294</v>
+        <v>97841.92647850027</v>
       </c>
       <c r="N6" t="n">
-        <v>223616.2391535738</v>
+        <v>223593.0148141911</v>
       </c>
       <c r="O6" t="n">
-        <v>211317.2917400937</v>
+        <v>211212.1021178389</v>
       </c>
       <c r="P6" t="n">
-        <v>211317.2917400937</v>
+        <v>211212.1021178389</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778143</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990739</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778143</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778143</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990739</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>116.1664150126251</v>
       </c>
       <c r="W2" t="n">
-        <v>369.8422500230727</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U4" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.742286579561437</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>182.8469633077067</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304843</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.7088048787643</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>83.94149472053158</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>84.63380825304891</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>316.389926674475</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -34956,10 +34956,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,10 +35415,10 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761441</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.39394564341887</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923648</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,19 +35892,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>363.3683445154879</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37320,16 +37320,16 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>655.9980117748582</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.677385825885774e-14</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>713.2395913281107</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>638.8760904222228</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
